--- a/bom/Onion_Feather_BOM.xlsx
+++ b/bom/Onion_Feather_BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t xml:space="preserve">References</t>
   </si>
@@ -37,6 +37,96 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
+    <t xml:space="preserve">C1, C2, C3, C4, C5, C10, C11, C12, C14, C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0805C106K4PAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, C17, C19, C20, C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C104M4RAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT0603FRD0749R9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9, C16, C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C105M4PAC7411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7, R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCT0603MZ0000ZP500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT0603DRE074K7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603YD475MAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C473M4RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0805C476M9PACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47u</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1</t>
   </si>
   <si>
@@ -49,6 +139,63 @@
     <t xml:space="preserve">L_Coilcraft_XAL5030</t>
   </si>
   <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBR130T3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_Schottky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP0503BAHTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP0503BAHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQ25895RTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas_S-PWQFN-N24_EP2.7x2.7mm_ThermalVias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP2102N-A01-GQFN24R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP2102N-A01-GQFN24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-24-1EP_4x4mm_P0.5mm_EP2.6x2.6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STF202-22T1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT95P275X110-6N</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -61,13 +208,16 @@
     <t xml:space="preserve">SOT-223-3_TabPin2</t>
   </si>
   <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STF202-22T1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT95P275X110-6N</t>
+    <t xml:space="preserve">USB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47590-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB_B_Micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB_Micro-AB_Molex_47590-0001</t>
   </si>
   <si>
     <t xml:space="preserve">IC1</t>
@@ -79,135 +229,15 @@
     <t xml:space="preserve">SOP65P490X110-8N</t>
   </si>
   <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2102N-A01-GQFN24R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2102N-A01-GQFN24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-24-1EP_4x4mm_P0.5mm_EP2.6x2.6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ25895RTW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas_S-PWQFN-N24_EP2.7x2.7mm_ThermalVias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47590-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_B_Micro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_Micro-AB_Molex_47590-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8, C17, C19, C20, C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9, C16, C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C2, C3, C4, C5, C10, C11, C12, C14, C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, R4, R5, R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7, R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_Schottky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_SOD-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBR130T3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP0503BAHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-143</t>
-  </si>
-  <si>
     <t xml:space="preserve">J4</t>
   </si>
   <si>
+    <t xml:space="preserve">67643-0910</t>
+  </si>
+  <si>
     <t xml:space="preserve">USB_A</t>
   </si>
   <si>
-    <t xml:space="preserve">67643-0910</t>
-  </si>
-  <si>
     <t xml:space="preserve">J1</t>
   </si>
   <si>
@@ -220,6 +250,9 @@
     <t xml:space="preserve">J3</t>
   </si>
   <si>
+    <t xml:space="preserve">S2B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conn_01x02</t>
   </si>
   <si>
@@ -229,6 +262,9 @@
     <t xml:space="preserve">J5</t>
   </si>
   <si>
+    <t xml:space="preserve">SM04B-SRSS-TB(LF)(SN)</t>
+  </si>
+  <si>
     <t xml:space="preserve">M04PTH</t>
   </si>
   <si>
@@ -236,6 +272,9 @@
   </si>
   <si>
     <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM06B-SRSS-TB(LF)(SN)</t>
   </si>
   <si>
     <t xml:space="preserve">CON_HEADER_PRG_AVR_ICSP-PTH</t>
@@ -379,7 +418,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,7 +435,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,47 +446,47 @@
         <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,13 +497,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +517,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -486,41 +525,50 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -528,27 +576,33 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -556,13 +610,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -570,55 +627,67 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
@@ -626,13 +695,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
@@ -640,13 +712,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
@@ -654,13 +729,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
@@ -668,13 +746,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -682,13 +763,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
@@ -696,13 +780,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1</v>
@@ -710,13 +797,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1</v>

--- a/bom/Onion_Feather_BOM.xlsx
+++ b/bom/Onion_Feather_BOM.xlsx
@@ -37,6 +37,48 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805YD475MAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, C17, C19, C20, C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C104M4RAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9, C16, C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C105M4PAC7411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C473M4RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47n</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1, C2, C3, C4, C5, C10, C11, C12, C14, C15</t>
   </si>
   <si>
@@ -46,19 +88,34 @@
     <t xml:space="preserve">10u</t>
   </si>
   <si>
-    <t xml:space="preserve">C_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8, C17, C19, C20, C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0603C104M4RAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_0603_1608Metric</t>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0805C476M9PACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7, R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCT0603MZ0000ZP500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT0603DRE074K7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7K</t>
   </si>
   <si>
     <t xml:space="preserve">R3, R4, R5, R6</t>
@@ -68,63 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">49.9R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9, C16, C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0603C105M4PAC7411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7, R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCT0603MZ0000ZP500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT0603DRE074K7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603YD475MAT2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0603C473M4RACTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0805C476M9PACTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47u</t>
   </si>
   <si>
     <t xml:space="preserve">L1</t>
@@ -418,7 +418,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,78 +449,78 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,10 +534,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,10 +551,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/bom/Onion_Feather_BOM.xlsx
+++ b/bom/Onion_Feather_BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t xml:space="preserve">References</t>
   </si>
@@ -97,6 +97,18 @@
     <t xml:space="preserve">47u</t>
   </si>
   <si>
+    <t xml:space="preserve">R9, R10, R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW060310K0JNEBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0603_1608Metric</t>
+  </si>
+  <si>
     <t xml:space="preserve">R7, R8</t>
   </si>
   <si>
@@ -106,9 +118,6 @@
     <t xml:space="preserve">0R</t>
   </si>
   <si>
-    <t xml:space="preserve">R_0603_1608Metric</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1, R2</t>
   </si>
   <si>
@@ -154,6 +163,15 @@
     <t xml:space="preserve">D2</t>
   </si>
   <si>
+    <t xml:space="preserve">PMEG4010CPA,115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_Schottky_x2_KCom_AAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT1061</t>
+  </si>
+  <si>
     <t xml:space="preserve">D5</t>
   </si>
   <si>
@@ -226,7 +244,16 @@
     <t xml:space="preserve">MAX11646EUA+T</t>
   </si>
   <si>
-    <t xml:space="preserve">SOP65P490X110-8N</t>
+    <t xml:space="preserve">TSSOP-8_4.4x3mm_P0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74HC367PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP65P640X120-16N</t>
   </si>
   <si>
     <t xml:space="preserve">J4</t>
@@ -376,7 +403,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -384,7 +411,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,7 +551,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,7 +585,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,24 +599,24 @@
         <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -593,16 +624,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -610,16 +641,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -627,16 +658,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -644,16 +675,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -661,16 +692,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -678,16 +709,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
@@ -695,16 +726,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
@@ -712,16 +743,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
@@ -729,16 +760,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
@@ -746,16 +777,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -763,16 +794,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
@@ -780,16 +811,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1</v>
@@ -797,18 +828,52 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
